--- a/datos_energia.xlsx
+++ b/datos_energia.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\OneDrive\Documentos\Ejemplos_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB426E73-4DF2-4AD1-942D-DC3C3FABEFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A89971A-717E-4F6C-85E3-B756D399D72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datos_energia" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
   <si>
     <t>Cuadro  1.   CAPACIDAD INSTALADA,  CAPACIDAD FIRME  Y  GENERACl6N BRUTA POR  EMPRESA  Y  TIPO  DE  PLANTA
 2022</t>
   </si>
   <si>
     <t>HIDROELECTRICAS</t>
-  </si>
-  <si>
-    <t>CAPACIDAD                                GENERACl6N                                CAPACIDAD
-INSTALADA           %                   BRUTA  (GWh)           %                     FIRME  MW</t>
-  </si>
-  <si>
-    <t>MW</t>
   </si>
   <si>
     <t>ACP</t>
@@ -146,14 +139,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>GENERACION
-BRUTA  (GWh)</t>
-  </si>
-  <si>
-    <t>CAPACIDAD
-FIRME  (MW)</t>
-  </si>
-  <si>
     <t>AES PANAMA SRL</t>
   </si>
   <si>
@@ -298,12 +283,21 @@
   </si>
   <si>
     <t>CAPACIDAD  TOTAL</t>
+  </si>
+  <si>
+    <t>GENERACIÓN BRUTAL (GWh)</t>
+  </si>
+  <si>
+    <t>CAPACIDAD FIRME MW</t>
+  </si>
+  <si>
+    <t>CAPACIDAD INSTALADA MW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -781,12 +775,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1141,1628 +1138,1315 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>1.51</v>
+      </c>
+      <c r="E3">
+        <v>274.29000000000002</v>
+      </c>
+      <c r="F3">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>481.96</v>
+      </c>
+      <c r="D4">
+        <v>12.1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1523.05</v>
+      </c>
+      <c r="F4">
+        <v>12.86</v>
+      </c>
+      <c r="G4">
+        <v>306.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>60</v>
-      </c>
-      <c r="E5">
-        <v>1.51</v>
+        <v>222.17</v>
+      </c>
+      <c r="D5">
+        <v>5.58</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1057.98</v>
+      </c>
+      <c r="F5">
+        <v>8.93</v>
       </c>
       <c r="G5">
-        <v>274.29000000000002</v>
-      </c>
-      <c r="I5">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>175.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>481.96</v>
+        <v>15.5</v>
+      </c>
+      <c r="D6">
+        <v>0.39</v>
       </c>
       <c r="E6">
-        <v>12.1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1523.05</v>
-      </c>
-      <c r="I6">
-        <v>12.86</v>
-      </c>
-      <c r="K6">
-        <v>306.55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75.91</v>
+      </c>
+      <c r="F6">
+        <v>0.64</v>
+      </c>
+      <c r="G6">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>222.17</v>
+        <v>0.53</v>
+      </c>
+      <c r="D7">
+        <v>0.01</v>
       </c>
       <c r="E7">
-        <v>5.58</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1057.98</v>
-      </c>
-      <c r="I7">
-        <v>8.93</v>
-      </c>
-      <c r="K7">
-        <v>175.33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.64</v>
+      </c>
+      <c r="F7">
+        <v>0.01</v>
+      </c>
+      <c r="G7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>15.5</v>
+        <v>19.75</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>0.39</v>
+        <v>99.98</v>
+      </c>
+      <c r="F8">
+        <v>0.84</v>
       </c>
       <c r="G8">
-        <v>75.91</v>
-      </c>
-      <c r="I8">
-        <v>0.64</v>
-      </c>
-      <c r="K8">
-        <v>3.06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.53</v>
+        <v>92.49</v>
+      </c>
+      <c r="D9">
+        <v>2.3199999999999998</v>
       </c>
       <c r="E9">
-        <v>0.01</v>
+        <v>372.41</v>
+      </c>
+      <c r="F9">
+        <v>3.14</v>
       </c>
       <c r="G9">
-        <v>1.64</v>
-      </c>
-      <c r="I9">
-        <v>0.01</v>
-      </c>
-      <c r="K9">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80.709999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>19.75</v>
+        <v>25.34</v>
+      </c>
+      <c r="D10">
+        <v>0.64</v>
       </c>
       <c r="E10">
-        <v>0.5</v>
+        <v>87.11</v>
+      </c>
+      <c r="F10">
+        <v>0.74</v>
       </c>
       <c r="G10">
-        <v>99.98</v>
-      </c>
-      <c r="I10">
-        <v>0.84</v>
-      </c>
-      <c r="K10">
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>92.49</v>
+        <v>19.829999999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>2.3199999999999998</v>
+        <v>93.4</v>
+      </c>
+      <c r="F11">
+        <v>0.79</v>
       </c>
       <c r="G11">
-        <v>372.41</v>
-      </c>
-      <c r="I11">
-        <v>3.14</v>
-      </c>
-      <c r="K11">
-        <v>80.709999999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="C12">
-        <v>25.34</v>
+        <v>84.65</v>
+      </c>
+      <c r="D12">
+        <v>2.13</v>
       </c>
       <c r="E12">
-        <v>0.64</v>
+        <v>514.9</v>
+      </c>
+      <c r="F12">
+        <v>4.3499999999999996</v>
       </c>
       <c r="G12">
-        <v>87.11</v>
-      </c>
-      <c r="I12">
-        <v>0.74</v>
-      </c>
-      <c r="K12">
-        <v>23.04</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57.51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>19.829999999999998</v>
+        <v>17.57</v>
+      </c>
+      <c r="D13">
+        <v>0.44</v>
       </c>
       <c r="E13">
-        <v>0.5</v>
+        <v>72.3</v>
+      </c>
+      <c r="F13">
+        <v>0.61</v>
       </c>
       <c r="G13">
-        <v>93.4</v>
-      </c>
-      <c r="I13">
-        <v>0.79</v>
-      </c>
-      <c r="K13">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>84.65</v>
-      </c>
-      <c r="E14">
-        <v>2.13</v>
+        <v>300</v>
+      </c>
+      <c r="D14">
+        <v>7.53</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1383.17</v>
+      </c>
+      <c r="F14">
+        <v>11.68</v>
       </c>
       <c r="G14">
-        <v>514.9</v>
-      </c>
-      <c r="I14">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="K14">
-        <v>57.51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>289.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="C15">
-        <v>17.57</v>
+        <v>7.8</v>
+      </c>
+      <c r="D15">
+        <v>0.2</v>
       </c>
       <c r="E15">
-        <v>0.44</v>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="F15">
+        <v>0.33</v>
       </c>
       <c r="G15">
-        <v>72.3</v>
-      </c>
-      <c r="I15">
-        <v>0.61</v>
-      </c>
-      <c r="K15">
-        <v>3.91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="C16">
-        <v>300</v>
+        <v>22.48</v>
+      </c>
+      <c r="D16">
+        <v>0.56000000000000005</v>
       </c>
       <c r="E16">
-        <v>7.53</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1383.17</v>
-      </c>
-      <c r="I16">
-        <v>11.68</v>
-      </c>
-      <c r="K16">
-        <v>289.49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>114.93</v>
+      </c>
+      <c r="F16">
+        <v>0.97</v>
+      </c>
+      <c r="G16">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="C17">
-        <v>7.8</v>
+        <v>57.9</v>
+      </c>
+      <c r="D17">
+        <v>1.45</v>
       </c>
       <c r="E17">
-        <v>0.2</v>
+        <v>298.88</v>
+      </c>
+      <c r="F17">
+        <v>2.52</v>
       </c>
       <c r="G17">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="I17">
-        <v>0.33</v>
-      </c>
-      <c r="K17">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>19.420000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="C18">
-        <v>22.48</v>
+        <v>28.58</v>
+      </c>
+      <c r="D18">
+        <v>0.72</v>
       </c>
       <c r="E18">
-        <v>0.56000000000000005</v>
+        <v>148.37</v>
+      </c>
+      <c r="F18">
+        <v>1.25</v>
       </c>
       <c r="G18">
-        <v>114.93</v>
-      </c>
-      <c r="I18">
-        <v>0.97</v>
-      </c>
-      <c r="K18">
-        <v>7.31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11.57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="C19">
-        <v>57.9</v>
+        <v>5.25</v>
+      </c>
+      <c r="D19">
+        <v>0.13</v>
       </c>
       <c r="E19">
-        <v>1.45</v>
+        <v>32.69</v>
+      </c>
+      <c r="F19">
+        <v>0.28000000000000003</v>
       </c>
       <c r="G19">
-        <v>298.88</v>
-      </c>
-      <c r="I19">
-        <v>2.52</v>
-      </c>
-      <c r="K19">
-        <v>19.420000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="C20">
-        <v>28.58</v>
+        <v>31.8</v>
+      </c>
+      <c r="D20">
+        <v>0.8</v>
       </c>
       <c r="E20">
-        <v>0.72</v>
+        <v>152.69999999999999</v>
+      </c>
+      <c r="F20">
+        <v>1.29</v>
       </c>
       <c r="G20">
-        <v>148.37</v>
-      </c>
-      <c r="I20">
-        <v>1.25</v>
-      </c>
-      <c r="K20">
-        <v>11.57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="C21">
-        <v>5.25</v>
+        <v>7.13</v>
+      </c>
+      <c r="D21">
+        <v>0.18</v>
       </c>
       <c r="E21">
-        <v>0.13</v>
+        <v>36.58</v>
+      </c>
+      <c r="F21">
+        <v>0.31</v>
       </c>
       <c r="G21">
-        <v>32.69</v>
-      </c>
-      <c r="I21">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K21">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="C22">
-        <v>31.8</v>
+        <v>4.3</v>
+      </c>
+      <c r="D22">
+        <v>0.11</v>
       </c>
       <c r="E22">
-        <v>0.8</v>
+        <v>7.68</v>
+      </c>
+      <c r="F22">
+        <v>0.06</v>
       </c>
       <c r="G22">
-        <v>152.69999999999999</v>
-      </c>
-      <c r="I22">
-        <v>1.29</v>
-      </c>
-      <c r="K22">
-        <v>22.22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="C23">
-        <v>7.13</v>
+        <v>21.62</v>
+      </c>
+      <c r="D23">
+        <v>0.54</v>
       </c>
       <c r="E23">
-        <v>0.18</v>
+        <v>127.35</v>
+      </c>
+      <c r="F23">
+        <v>1.08</v>
       </c>
       <c r="G23">
-        <v>36.58</v>
-      </c>
-      <c r="I23">
-        <v>0.31</v>
-      </c>
-      <c r="K23">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="C24">
-        <v>4.3</v>
+        <v>72.2</v>
+      </c>
+      <c r="D24">
+        <v>1.81</v>
       </c>
       <c r="E24">
-        <v>0.11</v>
+        <v>322.20999999999998</v>
+      </c>
+      <c r="F24">
+        <v>2.72</v>
       </c>
       <c r="G24">
-        <v>7.68</v>
-      </c>
-      <c r="I24">
-        <v>0.06</v>
-      </c>
-      <c r="K24">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22.14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="C25">
-        <v>21.62</v>
+        <v>145</v>
+      </c>
+      <c r="D25">
+        <v>3.64</v>
       </c>
       <c r="E25">
-        <v>0.54</v>
+        <v>796.2</v>
+      </c>
+      <c r="F25">
+        <v>6.72</v>
       </c>
       <c r="G25">
-        <v>127.35</v>
-      </c>
-      <c r="I25">
-        <v>1.08</v>
-      </c>
-      <c r="K25">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>51.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="C26">
-        <v>72.2</v>
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>0.25</v>
       </c>
       <c r="E26">
-        <v>1.81</v>
+        <v>58.57</v>
+      </c>
+      <c r="F26">
+        <v>0.49</v>
       </c>
       <c r="G26">
-        <v>322.20999999999998</v>
-      </c>
-      <c r="I26">
-        <v>2.72</v>
-      </c>
-      <c r="K26">
-        <v>22.14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="C27">
-        <v>145</v>
+        <v>6.78</v>
+      </c>
+      <c r="D27">
+        <v>0.17</v>
       </c>
       <c r="E27">
-        <v>3.64</v>
+        <v>27.7</v>
+      </c>
+      <c r="F27">
+        <v>0.23</v>
       </c>
       <c r="G27">
-        <v>796.2</v>
-      </c>
-      <c r="I27">
-        <v>6.72</v>
-      </c>
-      <c r="K27">
-        <v>51.16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="C28">
         <v>10</v>
       </c>
+      <c r="D28">
+        <v>0.25</v>
+      </c>
       <c r="E28">
-        <v>0.25</v>
+        <v>61.61</v>
+      </c>
+      <c r="F28">
+        <v>0.52</v>
       </c>
       <c r="G28">
-        <v>58.57</v>
-      </c>
-      <c r="I28">
-        <v>0.49</v>
-      </c>
-      <c r="K28">
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="C29">
-        <v>6.78</v>
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>0.25</v>
       </c>
       <c r="E29">
-        <v>0.17</v>
+        <v>61.57</v>
+      </c>
+      <c r="F29">
+        <v>0.52</v>
       </c>
       <c r="G29">
-        <v>27.7</v>
-      </c>
-      <c r="I29">
-        <v>0.23</v>
-      </c>
-      <c r="K29">
-        <v>3.08</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D30">
+        <v>0.5</v>
       </c>
       <c r="E30">
-        <v>0.25</v>
+        <v>92.32</v>
+      </c>
+      <c r="F30">
+        <v>0.78</v>
       </c>
       <c r="G30">
-        <v>61.61</v>
-      </c>
-      <c r="I30">
-        <v>0.52</v>
-      </c>
-      <c r="K30">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>12.52</v>
+      </c>
+      <c r="D31">
+        <v>0.31</v>
       </c>
       <c r="E31">
-        <v>0.25</v>
+        <v>58.9</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
       </c>
       <c r="G31">
-        <v>61.57</v>
-      </c>
-      <c r="I31">
-        <v>0.52</v>
-      </c>
-      <c r="K31">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="C32">
-        <v>19.899999999999999</v>
+        <v>13.64</v>
+      </c>
+      <c r="D32">
+        <v>0.34</v>
       </c>
       <c r="E32">
-        <v>0.5</v>
+        <v>66.73</v>
+      </c>
+      <c r="F32">
+        <v>0.56000000000000005</v>
       </c>
       <c r="G32">
-        <v>92.32</v>
-      </c>
-      <c r="I32">
-        <v>0.78</v>
-      </c>
-      <c r="K32">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="C33">
-        <v>12.52</v>
+        <v>9.89</v>
+      </c>
+      <c r="D33">
+        <v>0.25</v>
       </c>
       <c r="E33">
-        <v>0.31</v>
+        <v>34.369999999999997</v>
+      </c>
+      <c r="F33">
+        <v>0.28999999999999998</v>
       </c>
       <c r="G33">
-        <v>58.9</v>
-      </c>
-      <c r="I33">
-        <v>0.5</v>
-      </c>
-      <c r="K33">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="C34">
-        <v>13.64</v>
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="D34">
+        <v>0.2</v>
       </c>
       <c r="E34">
-        <v>0.34</v>
+        <v>39.06</v>
+      </c>
+      <c r="F34">
+        <v>0.33</v>
       </c>
       <c r="G34">
-        <v>66.73</v>
-      </c>
-      <c r="I34">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="K34">
-        <v>4.45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="C35">
-        <v>9.89</v>
-      </c>
-      <c r="E35">
-        <v>0.25</v>
-      </c>
-      <c r="G35">
-        <v>34.369999999999997</v>
-      </c>
-      <c r="I35">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K35">
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C35" s="2">
+        <v>1844.7</v>
+      </c>
+      <c r="D35">
+        <v>46.33</v>
+      </c>
+      <c r="E35" s="2">
+        <v>8133.86</v>
+      </c>
+      <c r="F35">
+        <v>68.66</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1109.68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="C36">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="E36">
-        <v>0.2</v>
-      </c>
-      <c r="G36">
-        <v>39.06</v>
-      </c>
-      <c r="I36">
-        <v>0.33</v>
-      </c>
-      <c r="K36">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="2">
-        <v>1844.7</v>
-      </c>
-      <c r="E37">
-        <v>46.33</v>
-      </c>
-      <c r="G37" s="2">
-        <v>8133.86</v>
-      </c>
-      <c r="I37">
-        <v>68.66</v>
-      </c>
-      <c r="K37" s="2">
-        <v>1109.68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>39.86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="B39">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="H39" t="s">
-        <v>39</v>
-      </c>
-      <c r="J39" s="1" t="s">
+      <c r="B40">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B41">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B40">
-        <v>39.86</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>77.38</v>
-      </c>
-      <c r="H40">
-        <v>0.65</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B42">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B41">
-        <v>120</v>
-      </c>
-      <c r="D41">
-        <v>3.01</v>
-      </c>
-      <c r="F41">
-        <v>192.24</v>
-      </c>
-      <c r="H41">
-        <v>1.62</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B43">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B42">
+      <c r="B44">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
         <v>0.96</v>
       </c>
-      <c r="D42">
-        <v>0.02</v>
-      </c>
-      <c r="F42">
-        <v>0.05</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43">
-        <v>9.52</v>
-      </c>
-      <c r="D43">
-        <v>0.24</v>
-      </c>
-      <c r="F43">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="H43">
-        <v>0.16</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44">
-        <v>4.75</v>
-      </c>
-      <c r="D44">
-        <v>0.12</v>
-      </c>
-      <c r="F44">
-        <v>2.93</v>
-      </c>
-      <c r="H44">
-        <v>0.02</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B45">
-        <v>9.69</v>
-      </c>
-      <c r="D45">
-        <v>0.24</v>
-      </c>
-      <c r="F45">
-        <v>15.6</v>
-      </c>
-      <c r="H45">
-        <v>0.13</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B47">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B46">
+      <c r="B48">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>111.66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
         <v>9.9</v>
       </c>
-      <c r="D46">
-        <v>0.25</v>
-      </c>
-      <c r="F46">
-        <v>13.7</v>
-      </c>
-      <c r="H46">
-        <v>0.12</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47">
-        <v>8.99</v>
-      </c>
-      <c r="D47">
-        <v>0.23</v>
-      </c>
-      <c r="F47">
-        <v>18.29</v>
-      </c>
-      <c r="H47">
-        <v>0.15</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48">
-        <v>0.96</v>
-      </c>
-      <c r="D48">
-        <v>0.02</v>
-      </c>
-      <c r="F48">
-        <v>1.36</v>
-      </c>
-      <c r="H48">
-        <v>0.01</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
         <v>9.99</v>
       </c>
-      <c r="D49">
-        <v>0.25</v>
-      </c>
-      <c r="F49">
-        <v>30.18</v>
-      </c>
-      <c r="H49">
-        <v>0.25</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50">
-        <v>3.24</v>
-      </c>
-      <c r="D50">
-        <v>0.08</v>
-      </c>
-      <c r="F50">
-        <v>5.64</v>
-      </c>
-      <c r="H50">
-        <v>0.05</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51">
-        <v>0.48</v>
-      </c>
-      <c r="D51">
-        <v>0.01</v>
-      </c>
-      <c r="F51">
-        <v>0.71</v>
-      </c>
-      <c r="H51">
-        <v>0.01</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="D52">
-        <v>0.08</v>
-      </c>
-      <c r="F52">
-        <v>5.25</v>
-      </c>
-      <c r="H52">
-        <v>0.04</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53">
-        <v>111.66</v>
-      </c>
-      <c r="D53">
-        <v>2.8</v>
-      </c>
-      <c r="F53">
-        <v>119.94</v>
-      </c>
-      <c r="H53">
-        <v>1.01</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54">
-        <v>9.6</v>
-      </c>
-      <c r="D54">
-        <v>0.24</v>
-      </c>
-      <c r="F54">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H54">
-        <v>0.04</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55">
-        <v>0.1</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0.04</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56">
-        <v>16</v>
-      </c>
-      <c r="D56">
-        <v>0.4</v>
-      </c>
-      <c r="F56">
-        <v>29.23</v>
-      </c>
-      <c r="H56">
-        <v>0.25</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57">
-        <v>8.99</v>
-      </c>
-      <c r="D57">
-        <v>0.23</v>
-      </c>
-      <c r="F57">
-        <v>16.96</v>
-      </c>
-      <c r="H57">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58">
-        <v>9.99</v>
-      </c>
-      <c r="D58">
-        <v>0.25</v>
-      </c>
-      <c r="F58">
-        <v>14.79</v>
-      </c>
-      <c r="H58">
-        <v>0.12</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59">
-        <v>9.9</v>
-      </c>
-      <c r="D59">
-        <v>0.25</v>
-      </c>
-      <c r="F59">
-        <v>13.98</v>
-      </c>
-      <c r="H59">
-        <v>0.12</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60">
-        <v>9</v>
-      </c>
-      <c r="D60">
-        <v>0.23</v>
-      </c>
-      <c r="F60">
-        <v>12.23</v>
-      </c>
-      <c r="H60">
-        <v>0.1</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>63</v>
       </c>
-      <c r="B61">
-        <v>2.4</v>
-      </c>
-      <c r="D61">
-        <v>0.06</v>
-      </c>
-      <c r="F61">
-        <v>1.58</v>
-      </c>
-      <c r="H61">
-        <v>0.01</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64">
+        <v>461.53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B62">
-        <v>2.56</v>
-      </c>
-      <c r="D62">
-        <v>0.06</v>
-      </c>
-      <c r="F62">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="H62">
-        <v>0.02</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="C65" t="s">
         <v>65</v>
       </c>
-      <c r="B63">
-        <v>10</v>
-      </c>
-      <c r="D63">
-        <v>0.25</v>
-      </c>
-      <c r="F63">
-        <v>7.23</v>
-      </c>
-      <c r="H63">
-        <v>0.06</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="D65" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B64">
-        <v>9.99</v>
-      </c>
-      <c r="D64">
-        <v>0.25</v>
-      </c>
-      <c r="F64">
-        <v>3.87</v>
-      </c>
-      <c r="H64">
-        <v>0.03</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
         <v>67</v>
       </c>
-      <c r="B65">
-        <v>40</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>74.010000000000005</v>
-      </c>
-      <c r="H65">
-        <v>0.62</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>36</v>
-      </c>
-      <c r="B66">
-        <v>461.53</v>
-      </c>
-      <c r="D66">
-        <v>11.59</v>
-      </c>
-      <c r="F66">
-        <v>683.26</v>
-      </c>
-      <c r="H66">
-        <v>5.77</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67">
+        <v>381</v>
+      </c>
+      <c r="D67">
+        <v>9.57</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1376</v>
+      </c>
+      <c r="F67">
+        <v>11.62</v>
+      </c>
+      <c r="G67">
+        <v>349.89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="C68">
+        <v>87</v>
+      </c>
+      <c r="D68">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E68">
+        <v>102.67</v>
+      </c>
+      <c r="F68">
+        <v>0.87</v>
+      </c>
+      <c r="G68">
+        <v>73.239999999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
+      <c r="C69">
+        <v>68</v>
+      </c>
+      <c r="D69">
+        <v>1.71</v>
+      </c>
+      <c r="E69">
+        <v>0.91</v>
+      </c>
+      <c r="F69">
+        <v>0.01</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="C70">
+        <v>150</v>
+      </c>
+      <c r="D70">
+        <v>3.77</v>
+      </c>
+      <c r="E70">
+        <v>57.94</v>
+      </c>
+      <c r="F70">
+        <v>0.49</v>
+      </c>
+      <c r="G70">
+        <v>142.74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>72</v>
       </c>
-      <c r="C69">
-        <v>381</v>
-      </c>
-      <c r="E69">
-        <v>9.57</v>
-      </c>
-      <c r="G69" s="2">
-        <v>1376</v>
-      </c>
-      <c r="I69">
-        <v>11.62</v>
-      </c>
-      <c r="K69">
-        <v>349.89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="C71">
+        <v>6.3</v>
+      </c>
+      <c r="D71">
+        <v>0.16</v>
+      </c>
+      <c r="E71">
+        <v>0.36</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>73</v>
       </c>
-      <c r="C70">
-        <v>87</v>
-      </c>
-      <c r="E70">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="G70">
-        <v>102.67</v>
-      </c>
-      <c r="I70">
+      <c r="C72">
+        <v>144</v>
+      </c>
+      <c r="D72">
+        <v>3.62</v>
+      </c>
+      <c r="E72">
+        <v>453.62</v>
+      </c>
+      <c r="F72">
+        <v>3.83</v>
+      </c>
+      <c r="G72">
+        <v>135.06</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73">
+        <v>8.1</v>
+      </c>
+      <c r="D73">
+        <v>0.2</v>
+      </c>
+      <c r="E73">
+        <v>20.41</v>
+      </c>
+      <c r="F73">
+        <v>0.17</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74">
+        <v>46.43</v>
+      </c>
+      <c r="D74">
+        <v>1.17</v>
+      </c>
+      <c r="E74">
+        <v>103.46</v>
+      </c>
+      <c r="F74">
         <v>0.87</v>
       </c>
-      <c r="K70">
-        <v>73.239999999999995</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71">
-        <v>68</v>
-      </c>
-      <c r="E71">
-        <v>1.71</v>
-      </c>
-      <c r="G71">
-        <v>0.91</v>
-      </c>
-      <c r="I71">
-        <v>0.01</v>
-      </c>
-      <c r="K71">
+      <c r="G74">
+        <v>46.43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75">
+        <v>49.2</v>
+      </c>
+      <c r="D75">
+        <v>1.24</v>
+      </c>
+      <c r="E75">
+        <v>103.52</v>
+      </c>
+      <c r="F75">
+        <v>0.87</v>
+      </c>
+      <c r="G75">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76">
+        <v>300</v>
+      </c>
+      <c r="D76">
+        <v>7.53</v>
+      </c>
+      <c r="E76">
+        <v>70.39</v>
+      </c>
+      <c r="F76">
+        <v>0.59</v>
+      </c>
+      <c r="G76">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72">
-        <v>150</v>
-      </c>
-      <c r="E72">
-        <v>3.77</v>
-      </c>
-      <c r="G72">
-        <v>57.94</v>
-      </c>
-      <c r="I72">
-        <v>0.49</v>
-      </c>
-      <c r="K72">
-        <v>142.74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73">
-        <v>6.3</v>
-      </c>
-      <c r="E73">
-        <v>0.16</v>
-      </c>
-      <c r="G73">
-        <v>0.36</v>
-      </c>
-      <c r="I73">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>99.62</v>
+      </c>
+      <c r="D77">
+        <v>2.5</v>
+      </c>
+      <c r="E77">
+        <v>155.24</v>
+      </c>
+      <c r="F77">
+        <v>1.31</v>
+      </c>
+      <c r="G77">
+        <v>75.36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1339.65</v>
+      </c>
+      <c r="D78">
+        <v>33.64</v>
+      </c>
+      <c r="E78" s="2">
+        <v>2444.52</v>
+      </c>
+      <c r="F78">
+        <v>20.64</v>
+      </c>
+      <c r="G78">
+        <v>873.96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" t="s">
+        <v>80</v>
+      </c>
+      <c r="F80" t="s">
+        <v>37</v>
+      </c>
+      <c r="G80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81">
+        <v>55</v>
+      </c>
+      <c r="D81">
+        <v>1.38</v>
+      </c>
+      <c r="E81">
+        <v>82.15</v>
+      </c>
+      <c r="F81">
+        <v>0.69</v>
+      </c>
+      <c r="G81">
         <v>0</v>
       </c>
-      <c r="K73">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74">
-        <v>144</v>
-      </c>
-      <c r="E74">
-        <v>3.62</v>
-      </c>
-      <c r="G74">
-        <v>453.62</v>
-      </c>
-      <c r="I74">
-        <v>3.83</v>
-      </c>
-      <c r="K74">
-        <v>135.06</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75">
-        <v>8.1</v>
-      </c>
-      <c r="E75">
-        <v>0.2</v>
-      </c>
-      <c r="G75">
-        <v>20.41</v>
-      </c>
-      <c r="I75">
-        <v>0.17</v>
-      </c>
-      <c r="K75">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82">
+        <v>215</v>
+      </c>
+      <c r="D82">
+        <v>5.4</v>
+      </c>
+      <c r="E82">
+        <v>385.49</v>
+      </c>
+      <c r="F82">
+        <v>3.25</v>
+      </c>
+      <c r="G82">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76">
-        <v>46.43</v>
-      </c>
-      <c r="E76">
-        <v>1.17</v>
-      </c>
-      <c r="G76">
-        <v>103.46</v>
-      </c>
-      <c r="I76">
-        <v>0.87</v>
-      </c>
-      <c r="K76">
-        <v>46.43</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77">
-        <v>49.2</v>
-      </c>
-      <c r="E77">
-        <v>1.24</v>
-      </c>
-      <c r="G77">
-        <v>103.52</v>
-      </c>
-      <c r="I77">
-        <v>0.87</v>
-      </c>
-      <c r="K77">
-        <v>49.2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78">
-        <v>300</v>
-      </c>
-      <c r="E78">
-        <v>7.53</v>
-      </c>
-      <c r="G78">
-        <v>70.39</v>
-      </c>
-      <c r="I78">
-        <v>0.59</v>
-      </c>
-      <c r="K78">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83">
+        <v>66</v>
+      </c>
+      <c r="D83">
+        <v>1.66</v>
+      </c>
+      <c r="E83">
+        <v>116.66</v>
+      </c>
+      <c r="F83">
+        <v>0.98</v>
+      </c>
+      <c r="G83">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79">
-        <v>99.62</v>
-      </c>
-      <c r="E79">
-        <v>2.5</v>
-      </c>
-      <c r="G79">
-        <v>155.24</v>
-      </c>
-      <c r="I79">
-        <v>1.31</v>
-      </c>
-      <c r="K79">
-        <v>75.36</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>36</v>
-      </c>
-      <c r="C80" s="2">
-        <v>1339.65</v>
-      </c>
-      <c r="E80">
-        <v>33.64</v>
-      </c>
-      <c r="G80" s="2">
-        <v>2444.52</v>
-      </c>
-      <c r="I80">
-        <v>20.64</v>
-      </c>
-      <c r="K80">
-        <v>873.96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E82" t="s">
-        <v>39</v>
-      </c>
-      <c r="G82" t="s">
-        <v>84</v>
-      </c>
-      <c r="I82" t="s">
-        <v>39</v>
-      </c>
-      <c r="K82" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84">
+        <v>336</v>
+      </c>
+      <c r="D84">
+        <v>8.44</v>
+      </c>
+      <c r="E84">
+        <v>584.29999999999995</v>
+      </c>
+      <c r="F84">
+        <v>4.93</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83">
-        <v>55</v>
-      </c>
-      <c r="E83">
-        <v>1.38</v>
-      </c>
-      <c r="G83">
-        <v>82.15</v>
-      </c>
-      <c r="I83">
-        <v>0.69</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84">
-        <v>215</v>
-      </c>
-      <c r="E84">
-        <v>5.4</v>
-      </c>
-      <c r="G84">
-        <v>385.49</v>
-      </c>
-      <c r="I84">
-        <v>3.25</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85">
-        <v>66</v>
-      </c>
-      <c r="E85">
-        <v>1.66</v>
-      </c>
-      <c r="G85">
-        <v>116.66</v>
-      </c>
-      <c r="I85">
-        <v>0.98</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>36</v>
-      </c>
-      <c r="C86">
-        <v>336</v>
-      </c>
-      <c r="E86">
-        <v>8.44</v>
-      </c>
-      <c r="G86">
-        <v>584.29999999999995</v>
-      </c>
-      <c r="I86">
-        <v>4.93</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>89</v>
-      </c>
-      <c r="C88" s="2">
+      <c r="C86" s="2">
         <v>3981.88</v>
       </c>
-      <c r="E88">
+      <c r="D86">
         <v>100</v>
       </c>
-      <c r="G88" s="2">
+      <c r="E86" s="2">
         <v>11845.94</v>
       </c>
-      <c r="I88">
+      <c r="F86">
         <v>100</v>
       </c>
-      <c r="K88" s="2">
+      <c r="G86" s="2">
         <v>1983.64</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>